--- a/Epsitec.Cresus/App.Aider/Samples/EERV Région 2/2040/supergroup.xlsx
+++ b/Epsitec.Cresus/App.Aider/Samples/EERV Région 2/2040/supergroup.xlsx
@@ -113,10 +113,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -423,7 +423,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -443,134 +443,134 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="2">
-        <v>4030000000</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="4">
+        <v>2040000000</v>
+      </c>
+      <c r="C2" s="2">
         <v>4030000001</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="2">
-        <v>4030000000</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="4">
+        <v>2040000000</v>
+      </c>
+      <c r="C3" s="2">
         <v>4030000002</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="2">
-        <v>4030000000</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="4">
+        <v>2040000000</v>
+      </c>
+      <c r="C4" s="2">
         <v>4030000003</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="2">
-        <v>4030000000</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="4">
+        <v>2040000000</v>
+      </c>
+      <c r="C5" s="2">
         <v>4030000005</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="2">
-        <v>4030000000</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="4">
+        <v>2040000000</v>
+      </c>
+      <c r="C6" s="2">
         <v>4030000006</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="2">
-        <v>4030000000</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="4">
+        <v>2040000000</v>
+      </c>
+      <c r="C7" s="2">
         <v>4030000007</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="2">
-        <v>4030000000</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B8" s="4">
+        <v>2040000000</v>
+      </c>
+      <c r="C8" s="2">
         <v>4030000008</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="2">
-        <v>4030000000</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="B9" s="4">
+        <v>2040000000</v>
+      </c>
+      <c r="C9" s="2">
         <v>4030000009</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="2">
-        <v>4030000000</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="B10" s="4">
+        <v>2040000000</v>
+      </c>
+      <c r="C10" s="2">
         <v>4030000011</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="2">
-        <v>4030000000</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="B11" s="4">
+        <v>2040000000</v>
+      </c>
+      <c r="C11" s="2">
         <v>4030000012</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="2">
-        <v>4030000000</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="B12" s="4">
+        <v>2040000000</v>
+      </c>
+      <c r="C12" s="2">
         <v>4030000013</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="2">
-        <v>4030000000</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="B13" s="4">
+        <v>2040000000</v>
+      </c>
+      <c r="C13" s="2">
         <v>4030000014</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Epsitec.Cresus/App.Aider/Samples/EERV Région 2/2040/supergroup.xlsx
+++ b/Epsitec.Cresus/App.Aider/Samples/EERV Région 2/2040/supergroup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="555" windowWidth="27495" windowHeight="11445"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="23655" windowHeight="11445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,19 +31,19 @@
     <t>Groupes morgiens d'origine</t>
   </si>
   <si>
+    <t>Enfance</t>
+  </si>
+  <si>
     <t>Jeunesse</t>
   </si>
   <si>
+    <t>Aînés</t>
+  </si>
+  <si>
+    <t>Terre Nouvelle</t>
+  </si>
+  <si>
     <t>REGISTRES PAROISSIAUX</t>
-  </si>
-  <si>
-    <t>Enfance</t>
-  </si>
-  <si>
-    <t>Aînés</t>
-  </si>
-  <si>
-    <t>Terre Nouvelle</t>
   </si>
   <si>
     <t>Adultes</t>
@@ -113,10 +113,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -423,7 +423,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -443,134 +443,134 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="4">
-        <v>2040000000</v>
-      </c>
-      <c r="C2" s="2">
-        <v>4030000001</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2">
+        <v>2040000000</v>
+      </c>
+      <c r="C2" s="3">
+        <v>305020100</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="4">
-        <v>2040000000</v>
-      </c>
-      <c r="C3" s="2">
-        <v>4030000002</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2">
+        <v>2040000000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>305020200</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="4">
-        <v>2040000000</v>
-      </c>
-      <c r="C4" s="2">
-        <v>4030000003</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="2">
+        <v>2040000000</v>
+      </c>
+      <c r="C4" s="3">
+        <v>305020300</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="4">
-        <v>2040000000</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4030000005</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="B5" s="2">
+        <v>2040000000</v>
+      </c>
+      <c r="C5" s="3">
+        <v>305020400</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="4">
-        <v>2040000000</v>
-      </c>
-      <c r="C6" s="2">
-        <v>4030000006</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="B6" s="2">
+        <v>2040000000</v>
+      </c>
+      <c r="C6" s="3">
+        <v>305020500</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="4">
-        <v>2040000000</v>
-      </c>
-      <c r="C7" s="2">
-        <v>4030000007</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="B7" s="2">
+        <v>2040000000</v>
+      </c>
+      <c r="C7" s="3">
+        <v>305020600</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="4">
-        <v>2040000000</v>
-      </c>
-      <c r="C8" s="2">
-        <v>4030000008</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="2">
+        <v>2040000000</v>
+      </c>
+      <c r="C8" s="3">
+        <v>305020700</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="4">
-        <v>2040000000</v>
-      </c>
-      <c r="C9" s="2">
-        <v>4030000009</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="B9" s="2">
+        <v>2040000000</v>
+      </c>
+      <c r="C9" s="3">
+        <v>305020800</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="4">
-        <v>2040000000</v>
-      </c>
-      <c r="C10" s="2">
-        <v>4030000011</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="B10" s="2">
+        <v>2040000000</v>
+      </c>
+      <c r="C10" s="3">
+        <v>305020900</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="4">
-        <v>2040000000</v>
-      </c>
-      <c r="C11" s="2">
-        <v>4030000012</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="B11" s="2">
+        <v>2040000000</v>
+      </c>
+      <c r="C11" s="3">
+        <v>305021000</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="4">
-        <v>2040000000</v>
-      </c>
-      <c r="C12" s="2">
-        <v>4030000013</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="B12" s="2">
+        <v>2040000000</v>
+      </c>
+      <c r="C12" s="3">
+        <v>305021100</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="4">
-        <v>2040000000</v>
-      </c>
-      <c r="C13" s="2">
-        <v>4030000014</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="B13" s="2">
+        <v>2040000000</v>
+      </c>
+      <c r="C13" s="3">
+        <v>305021200</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Epsitec.Cresus/App.Aider/Samples/EERV Région 2/2040/supergroup.xlsx
+++ b/Epsitec.Cresus/App.Aider/Samples/EERV Région 2/2040/supergroup.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -105,13 +105,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -423,7 +420,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -446,10 +443,10 @@
       <c r="B2" s="2">
         <v>2040000000</v>
       </c>
-      <c r="C2" s="3">
-        <v>305020100</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2">
+        <v>403110100</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -457,10 +454,10 @@
       <c r="B3" s="2">
         <v>2040000000</v>
       </c>
-      <c r="C3" s="3">
-        <v>305020200</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3">
+        <v>403110200</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -468,10 +465,10 @@
       <c r="B4" s="2">
         <v>2040000000</v>
       </c>
-      <c r="C4" s="3">
-        <v>305020300</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4">
+        <v>403110300</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -479,10 +476,10 @@
       <c r="B5" s="2">
         <v>2040000000</v>
       </c>
-      <c r="C5" s="3">
-        <v>305020400</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5">
+        <v>403110400</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -490,10 +487,10 @@
       <c r="B6" s="2">
         <v>2040000000</v>
       </c>
-      <c r="C6" s="3">
-        <v>305020500</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6">
+        <v>403110500</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -501,10 +498,10 @@
       <c r="B7" s="2">
         <v>2040000000</v>
       </c>
-      <c r="C7" s="3">
-        <v>305020600</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7">
+        <v>403110600</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -512,10 +509,10 @@
       <c r="B8" s="2">
         <v>2040000000</v>
       </c>
-      <c r="C8" s="3">
-        <v>305020700</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C8">
+        <v>403110700</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -523,10 +520,10 @@
       <c r="B9" s="2">
         <v>2040000000</v>
       </c>
-      <c r="C9" s="3">
-        <v>305020800</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9">
+        <v>403110800</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -534,10 +531,10 @@
       <c r="B10" s="2">
         <v>2040000000</v>
       </c>
-      <c r="C10" s="3">
-        <v>305020900</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10">
+        <v>403110900</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -545,10 +542,10 @@
       <c r="B11" s="2">
         <v>2040000000</v>
       </c>
-      <c r="C11" s="3">
-        <v>305021000</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11">
+        <v>403111000</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -556,10 +553,10 @@
       <c r="B12" s="2">
         <v>2040000000</v>
       </c>
-      <c r="C12" s="3">
-        <v>305021100</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C12">
+        <v>403111100</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -567,10 +564,10 @@
       <c r="B13" s="2">
         <v>2040000000</v>
       </c>
-      <c r="C13" s="3">
-        <v>305021200</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="C13">
+        <v>403111200</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
